--- a/GDP_Appendix3.xlsx
+++ b/GDP_Appendix3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://staffsuniversity.sharepoint.com/sites/23-24FYPTeamTom/Shared Documents/Ben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="748" documentId="11_F8A99167851B42BA5A6D1CCD370C81ABE9EA4424" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9567B096-33EE-4B08-8E6D-D5950E5F7F41}"/>
+  <xr:revisionPtr revIDLastSave="771" documentId="11_F8A99167851B42BA5A6D1CCD370C81ABE9EA4424" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F30DBFA-D5AF-4AAA-BA22-879883470789}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
   <si>
     <t>Track Name</t>
   </si>
@@ -649,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
     <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -825,8 +825,20 @@
       <c r="X2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2">
+        <v>169</v>
+      </c>
+      <c r="AE2">
+        <v>0.365010799</v>
+      </c>
+      <c r="AF2">
+        <v>36.501079910000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -903,8 +915,20 @@
       <c r="X3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3">
+        <v>123</v>
+      </c>
+      <c r="AE3">
+        <v>0.27272727299999999</v>
+      </c>
+      <c r="AF3">
+        <v>27.272727270000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -981,8 +1005,20 @@
       <c r="X4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4">
+        <v>32</v>
+      </c>
+      <c r="AE4">
+        <v>7.2398190000000001E-2</v>
+      </c>
+      <c r="AF4">
+        <v>7.2398190050000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1059,8 +1095,20 @@
       <c r="X5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5">
+        <v>98</v>
+      </c>
+      <c r="AE5">
+        <v>0.22843822799999999</v>
+      </c>
+      <c r="AF5">
+        <v>22.843822840000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1137,8 +1185,20 @@
       <c r="X6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD6">
+        <v>22</v>
+      </c>
+      <c r="AE6">
+        <v>5.3658536999999999E-2</v>
+      </c>
+      <c r="AF6">
+        <v>5.3658536589999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1215,8 +1275,20 @@
       <c r="X7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD7">
+        <v>7</v>
+      </c>
+      <c r="AE7">
+        <v>1.7721519000000002E-2</v>
+      </c>
+      <c r="AF7">
+        <v>1.772151899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1293,8 +1365,20 @@
       <c r="X8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD8">
+        <v>12</v>
+      </c>
+      <c r="AE8">
+        <v>3.1662269E-2</v>
+      </c>
+      <c r="AF8">
+        <v>3.166226913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1372,7 +1456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1450,7 +1534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1528,7 +1612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1606,7 +1690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1684,7 +1768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1762,7 +1846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1840,7 +1924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3382,7 +3466,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,16 +3476,16 @@
         <v>73</v>
       </c>
       <c r="B1" cm="1">
-        <f t="array" ref="B1">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,Main!AC2,"")))</f>
-        <v>0</v>
+        <f t="array" ref="B1">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,A1,"")))</f>
+        <v>169</v>
       </c>
       <c r="C1" cm="1">
-        <f t="array" ref="C1">Main!AD2/SUM(LEN(Main!X2:X25))</f>
-        <v>0</v>
+        <f t="array" ref="C1">B1/SUM(LEN(Main!X2:X25))</f>
+        <v>0.3650107991360691</v>
       </c>
       <c r="D1">
         <f>C1*100</f>
-        <v>0</v>
+        <v>36.501079913606908</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,16 +3493,16 @@
         <v>74</v>
       </c>
       <c r="B2" cm="1">
-        <f t="array" ref="B2">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,Main!AC3,"")))</f>
-        <v>0</v>
+        <f t="array" ref="B2">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,A2,"")))</f>
+        <v>123</v>
       </c>
       <c r="C2" cm="1">
-        <f t="array" ref="C2">Main!AD3/SUM(LEN(Main!X3:X26))</f>
-        <v>0</v>
+        <f t="array" ref="C2">B2/SUM(LEN(Main!X3:X26))</f>
+        <v>0.27272727272727271</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D7" si="0">C2*100</f>
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,16 +3510,16 @@
         <v>75</v>
       </c>
       <c r="B3" cm="1">
-        <f t="array" ref="B3">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,Main!AC4,"")))</f>
-        <v>0</v>
+        <f t="array" ref="B3">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,A3,"")))</f>
+        <v>32</v>
       </c>
       <c r="C3" cm="1">
-        <f t="array" ref="C3">Main!AD4/SUM(LEN(Main!X4:X27))</f>
-        <v>0</v>
+        <f t="array" ref="C3">B3/SUM(LEN(Main!X4:X27))</f>
+        <v>7.2398190045248875E-2</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2398190045248878</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,16 +3527,16 @@
         <v>76</v>
       </c>
       <c r="B4" cm="1">
-        <f t="array" ref="B4">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,Main!AC5,"")))</f>
-        <v>0</v>
+        <f t="array" ref="B4">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,A4,"")))</f>
+        <v>98</v>
       </c>
       <c r="C4" cm="1">
-        <f t="array" ref="C4">Main!AD5/SUM(LEN(Main!X5:X28))</f>
-        <v>0</v>
+        <f t="array" ref="C4">B4/SUM(LEN(Main!X5:X28))</f>
+        <v>0.22843822843822845</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.843822843822846</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3460,16 +3544,16 @@
         <v>77</v>
       </c>
       <c r="B5" cm="1">
-        <f t="array" ref="B5">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,Main!AC6,"")))</f>
-        <v>0</v>
+        <f t="array" ref="B5">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,A5,"")))</f>
+        <v>22</v>
       </c>
       <c r="C5" cm="1">
-        <f t="array" ref="C5">Main!AD6/SUM(LEN(Main!X6:X29))</f>
-        <v>0</v>
+        <f t="array" ref="C5">B5/SUM(LEN(Main!X6:X29))</f>
+        <v>5.3658536585365853E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3658536585365857</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3477,16 +3561,16 @@
         <v>78</v>
       </c>
       <c r="B6" cm="1">
-        <f t="array" ref="B6">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,Main!AC7,"")))</f>
-        <v>0</v>
+        <f t="array" ref="B6">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,A6,"")))</f>
+        <v>7</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6">Main!AD7/SUM(LEN(Main!X7:X30))</f>
-        <v>0</v>
+        <f t="array" ref="C6">B6/SUM(LEN(Main!X7:X30))</f>
+        <v>1.7721518987341773E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7721518987341773</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3494,16 +3578,16 @@
         <v>79</v>
       </c>
       <c r="B7" cm="1">
-        <f t="array" ref="B7">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,Main!AC8,"")))</f>
-        <v>0</v>
+        <f t="array" ref="B7">SUM(LEN(Main!$X$2:$X$25) - LEN(SUBSTITUTE(Main!$X$2:$X$25,A7,"")))</f>
+        <v>12</v>
       </c>
       <c r="C7" cm="1">
-        <f t="array" ref="C7">Main!AD8/SUM(LEN(Main!X8:X31))</f>
-        <v>0</v>
+        <f t="array" ref="C7">B7/SUM(LEN(Main!X8:X31))</f>
+        <v>3.1662269129287601E-2</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1662269129287601</v>
       </c>
     </row>
   </sheetData>
@@ -3512,15 +3596,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DF57B0FF84684F9DCA854C9FFB8912" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d39cd055a4764590ebe89418264d1cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3ca4e8a-6c47-4ee3-b5a2-c9cd7b599a4c" xmlns:ns3="fd2277a0-dc9c-4a4f-b323-d8f3f426fdeb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e621e2cb76b7ddaa2f9a50fca7ca654" ns2:_="" ns3:_="">
     <xsd:import namespace="c3ca4e8a-6c47-4ee3-b5a2-c9cd7b599a4c"/>
@@ -3743,15 +3818,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4409ED83-0E27-46C2-9B2F-6E1131F73DB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90DF3D80-9516-4174-9D4F-96BB586D8205}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3768,4 +3844,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4409ED83-0E27-46C2-9B2F-6E1131F73DB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>